--- a/Student.Achieve/src/Student.Achieve.WebApi/Resources/Templates/course-form.xlsx
+++ b/Student.Achieve/src/Student.Achieve.WebApi/Resources/Templates/course-form.xlsx
@@ -969,16 +969,16 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
